--- a/zencart/docs/product_info/data.xlsx
+++ b/zencart/docs/product_info/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
@@ -18,264 +18,284 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products.products_img_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIR_WS_IMAGES_LARGE/products_description.img_folder/products.products_img_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片规格：500x500（小），800x800（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工下架（禁售）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大客户可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products.products_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products.master_categories_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未审核，1：已审核，2：自己可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recently Viewed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史浏览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$_SESSION['recent_products']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_discount_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_description_{$lang}.products_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多区定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products.products_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Questions &amp; Answers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returning soon(缺货)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.屏蔽加购物车模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold out(卖完下架)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球、北美、南美、欧洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录价格，原价，参考价，标价，并非实际售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间，结束时间，折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>products.products_image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">products_description.products_name
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>products.products_img_old</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIR_WS_IMAGES_LARGE/products_description.img_folder/products.products_img_old</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片规格：500x500（小），800x800（大）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工下架（禁售）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大客户可见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>products.products_quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>products.master_categories_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：未审核，1：已审核，2：自己可见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accessories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recommend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recently Viewed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史浏览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$_SESSION['recent_products']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>products_discount_quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>products_description_{$lang}.products_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海外仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多区定价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>products.products_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer Questions &amp; Answers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>returning soon(缺货)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.屏蔽加购物车模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sold out(卖完下架)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球、北美、南美、欧洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录价格，原价，参考价，标价，并非实际售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间，结束时间，折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>products_description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.products_name</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +320,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -399,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,6 +449,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,12 +464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -739,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,360 +784,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
-        <v>64</v>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
+      <c r="D2" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="13" t="s">
-        <v>0</v>
+      <c r="D3" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
+      <c r="A5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>58</v>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="13" t="s">
-        <v>35</v>
+      <c r="D13" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="2" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
